--- a/Excel Spreadsheets/Database Model.xlsx
+++ b/Excel Spreadsheets/Database Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\Excel Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual Model" sheetId="2" r:id="rId1"/>
@@ -1506,6 +1506,138 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585478</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375929</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6646842" y="7705725"/>
+          <a:ext cx="1608860" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Passwords</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375929</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323231</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connector: Elbow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="2053" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8255702" y="4799301"/>
+          <a:ext cx="2977984" cy="3587462"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 107676"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5583,6 +5715,383 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349084</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91045</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Text Box 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5804311" y="5801591"/>
+          <a:ext cx="1560370" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Passwords</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574098</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5351318" y="6125440"/>
+          <a:ext cx="2496416" cy="357993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574098</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5351318" y="6480464"/>
+          <a:ext cx="2496416" cy="1128650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LoginName </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PasswordHash </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>FirstName </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LastName</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574098</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201388</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Elbow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="1080" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7847734" y="3107872"/>
+          <a:ext cx="3870245" cy="3936917"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105907"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10555,6 +11064,383 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426398</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168359</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>178872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Text Box 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8306171" y="8618022"/>
+          <a:ext cx="1560370" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Passwords</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579542</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>178871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45276</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7853178" y="8941871"/>
+          <a:ext cx="2496416" cy="357993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579542</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45276</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Text Box 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7853178" y="9296895"/>
+          <a:ext cx="2496416" cy="1128650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LoginName nvarchar(50)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PasswordHash binary(64)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>FirstName nvarchar(40)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LastName nvarchar(40)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298494</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>145720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connector: Elbow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10349594" y="6023883"/>
+          <a:ext cx="3890036" cy="3837337"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105877"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10881,8 +11767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,8 +11783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="J12:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10922,8 +11808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE44" sqref="AE44"/>
+    <sheetView showGridLines="0" topLeftCell="I19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Spreadsheets/Database Model.xlsx
+++ b/Excel Spreadsheets/Database Model.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\Excel Spreadsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual Model" sheetId="2" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +102,7 @@
         <xdr:cNvPr id="2050" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +196,7 @@
         <xdr:cNvPr id="2053" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -275,7 +270,7 @@
         <xdr:cNvPr id="2051" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +344,7 @@
         <xdr:cNvPr id="2054" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +418,7 @@
         <xdr:cNvPr id="2052" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +512,7 @@
         <xdr:cNvPr id="2059" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -611,7 +606,7 @@
         <xdr:cNvPr id="2061" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -689,23 +684,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>182954</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>576818</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2063" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,7 +710,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15336363" y="2524125"/>
+          <a:off x="18973181" y="2298989"/>
           <a:ext cx="1606137" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -779,7 +774,7 @@
         <xdr:cNvPr id="2064" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,7 +848,7 @@
         <xdr:cNvPr id="2066" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +942,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,7 +995,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1053,7 @@
         <xdr:cNvPr id="11" name="Elbow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1109,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1167,7 @@
         <xdr:cNvPr id="18" name="Elbow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1225,7 @@
         <xdr:cNvPr id="22" name="Elbow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,11 +1269,11 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>320139</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>576818</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>51089</xdr:rowOff>
@@ -1288,7 +1283,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,13 +1294,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="15005493" y="3067082"/>
-          <a:ext cx="1798926" cy="2075088"/>
+          <a:off x="16711334" y="1136105"/>
+          <a:ext cx="2024062" cy="5711906"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 31071"/>
-            <a:gd name="adj2" fmla="val 111016"/>
+            <a:gd name="adj1" fmla="val 33176"/>
+            <a:gd name="adj2" fmla="val 104002"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1347,7 +1342,7 @@
         <xdr:cNvPr id="26" name="Elbow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1401,7 @@
         <xdr:cNvPr id="28" name="Elbow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,17 +1450,17 @@
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>182955</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122528</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,12 +1472,12 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="13494947" y="2514601"/>
-          <a:ext cx="1841417" cy="690563"/>
+          <a:ext cx="5478235" cy="465427"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 28194"/>
-            <a:gd name="adj2" fmla="val 133103"/>
+            <a:gd name="adj1" fmla="val 42670"/>
+            <a:gd name="adj2" fmla="val 149116"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1524,7 +1519,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1593,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,6 +1614,258 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23627</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>417491</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15177036" y="390526"/>
+          <a:ext cx="1606137" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Series</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>505072</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>292800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18083027" y="300472"/>
+          <a:ext cx="1606137" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventSeries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>182953</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>292799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122528</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2063" idx="1"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="18973180" y="981511"/>
+          <a:ext cx="715983" cy="1998517"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31928"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+            <a:gd name="adj3" fmla="val 131928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>417491</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>505072</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+          <a:endCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16783173" y="981510"/>
+          <a:ext cx="1299854" cy="90054"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1661,7 +1908,7 @@
         <xdr:cNvPr id="1096" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1982,7 @@
         <xdr:cNvPr id="1095" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +2128,7 @@
         <xdr:cNvPr id="1094" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2242,7 @@
         <xdr:cNvPr id="1075" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2316,7 @@
         <xdr:cNvPr id="1074" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2410,7 @@
         <xdr:cNvPr id="1073" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2504,7 @@
         <xdr:cNvPr id="1093" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2578,7 @@
         <xdr:cNvPr id="1092" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2686,7 @@
         <xdr:cNvPr id="1091" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2823,7 @@
         <xdr:cNvPr id="1090" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2897,7 @@
         <xdr:cNvPr id="1089" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +3060,7 @@
         <xdr:cNvPr id="1088" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +3134,7 @@
         <xdr:cNvPr id="1081" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000039040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +3208,7 @@
         <xdr:cNvPr id="1080" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3342,7 @@
         <xdr:cNvPr id="1079" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3590,7 @@
         <xdr:cNvPr id="1084" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3664,7 @@
         <xdr:cNvPr id="1083" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3798,7 @@
         <xdr:cNvPr id="1082" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3992,7 @@
         <xdr:cNvPr id="74" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +4066,7 @@
         <xdr:cNvPr id="75" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +4160,7 @@
         <xdr:cNvPr id="76" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,7 +4245,7 @@
         <xdr:cNvPr id="77" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4319,7 @@
         <xdr:cNvPr id="78" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4433,7 @@
         <xdr:cNvPr id="79" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4667,7 @@
         <xdr:cNvPr id="80" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4741,7 @@
         <xdr:cNvPr id="81" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,7 +4875,7 @@
         <xdr:cNvPr id="82" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +5049,7 @@
         <xdr:cNvPr id="21" name="Elbow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4858,7 +5105,7 @@
         <xdr:cNvPr id="23" name="Elbow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +5161,7 @@
         <xdr:cNvPr id="25" name="Elbow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,7 +5219,7 @@
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,7 +5277,7 @@
         <xdr:cNvPr id="84" name="Elbow Connector 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5088,7 +5335,7 @@
         <xdr:cNvPr id="1056" name="Elbow Connector 1055">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5146,7 +5393,7 @@
         <xdr:cNvPr id="1058" name="Elbow Connector 1057">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,7 +5451,7 @@
         <xdr:cNvPr id="1060" name="Elbow Connector 1059">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,7 +5507,7 @@
         <xdr:cNvPr id="1062" name="Elbow Connector 1061">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5563,7 @@
         <xdr:cNvPr id="50" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5749,7 @@
         <xdr:cNvPr id="51" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5659,7 +5906,7 @@
         <xdr:cNvPr id="52" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5733,7 +5980,7 @@
         <xdr:cNvPr id="41" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +6054,7 @@
         <xdr:cNvPr id="42" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +6177,7 @@
         <xdr:cNvPr id="43" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6052,7 +6299,7 @@
         <xdr:cNvPr id="3" name="Connector: Elbow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6115,7 +6362,7 @@
         <xdr:cNvPr id="41" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6189,7 +6436,7 @@
         <xdr:cNvPr id="42" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6577,7 @@
         <xdr:cNvPr id="43" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6471,7 +6718,7 @@
         <xdr:cNvPr id="44" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6792,7 @@
         <xdr:cNvPr id="45" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6648,7 +6895,7 @@
         <xdr:cNvPr id="46" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6760,7 +7007,7 @@
         <xdr:cNvPr id="47" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,7 +7081,7 @@
         <xdr:cNvPr id="48" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6960,7 +7207,7 @@
         <xdr:cNvPr id="49" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7109,22 +7356,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>363310</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>18556</xdr:rowOff>
+      <xdr:colOff>118382</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>98466</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>151906</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>465859</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7134,8 +7381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16122855" y="5543056"/>
-          <a:ext cx="1553566" cy="323850"/>
+          <a:off x="16038739" y="10700163"/>
+          <a:ext cx="1572120" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7173,7 +7420,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Events</a:t>
+            <a:t>SeminarEvents</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7183,22 +7430,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>509650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>151906</xdr:rowOff>
+      <xdr:colOff>264722</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>581520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>94756</xdr:rowOff>
+      <xdr:colOff>336592</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7208,8 +7455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15663059" y="5866906"/>
-          <a:ext cx="2496416" cy="514350"/>
+          <a:off x="15572758" y="11024013"/>
+          <a:ext cx="2521155" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7282,7 +7529,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>HostID</a:t>
+            <a:t>StaffID</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7324,22 +7571,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>509650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>94756</xdr:rowOff>
+      <xdr:colOff>264722</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>581520</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:colOff>336592</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>186789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,8 +7596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15663059" y="6381256"/>
-          <a:ext cx="2496416" cy="1221426"/>
+          <a:off x="15572758" y="11538363"/>
+          <a:ext cx="2521155" cy="1221426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7501,6 +7748,23 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>SeriesFlag bit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>EDescription </a:t>
           </a:r>
           <a:r>
@@ -7587,7 +7851,7 @@
         <xdr:cNvPr id="53" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7661,7 +7925,7 @@
         <xdr:cNvPr id="54" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7851,7 +8115,7 @@
         <xdr:cNvPr id="55" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +8198,7 @@
         <xdr:cNvPr id="56" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8008,7 +8272,7 @@
         <xdr:cNvPr id="57" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8160,7 +8424,7 @@
         <xdr:cNvPr id="58" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8504,7 +8768,7 @@
         <xdr:cNvPr id="59" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8578,7 +8842,7 @@
         <xdr:cNvPr id="60" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8730,7 +8994,7 @@
         <xdr:cNvPr id="61" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +9242,7 @@
         <xdr:cNvPr id="62" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9052,7 +9316,7 @@
         <xdr:cNvPr id="63" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9170,7 +9434,7 @@
         <xdr:cNvPr id="64" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9531,7 @@
         <xdr:cNvPr id="65" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9277,8 +9541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20003178" y="5736151"/>
-          <a:ext cx="1570761" cy="323850"/>
+          <a:off x="19892342" y="5736151"/>
+          <a:ext cx="1560370" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9316,7 +9580,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Host</a:t>
+            <a:t>Staff</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9333,15 +9597,15 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>100533</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82324</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9351,8 +9615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19549442" y="6060001"/>
-          <a:ext cx="2496691" cy="308823"/>
+          <a:off x="19636528" y="6060001"/>
+          <a:ext cx="2507576" cy="593892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9390,7 +9654,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>HostID</a:t>
+            <a:t>StaffID</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9420,6 +9684,15 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StaffType int (FK)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9450,21 +9723,21 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>55849</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90548</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>114140</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>71498</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9474,8 +9747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19563049" y="6377048"/>
-          <a:ext cx="2496691" cy="2266950"/>
+          <a:off x="19650135" y="6635581"/>
+          <a:ext cx="2507576" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9779,7 +10052,7 @@
         <xdr:cNvPr id="68" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9828,7 +10101,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>HostAddress</a:t>
+            <a:t>StaffAddress</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9853,7 +10126,7 @@
         <xdr:cNvPr id="69" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9931,7 +10204,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>HostID</a:t>
+            <a:t>StaffID</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10005,7 +10278,7 @@
         <xdr:cNvPr id="70" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10209,22 +10482,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>581521</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28081</xdr:rowOff>
+      <xdr:colOff>336593</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>42243</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118413</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>41687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="71" name="Elbow Connector 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10234,9 +10507,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="18159476" y="6124081"/>
-          <a:ext cx="1279131" cy="90332"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="18093914" y="6356946"/>
+          <a:ext cx="1542615" cy="4924241"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10266,8 +10539,8 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>100533</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118413</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
@@ -10280,7 +10553,7 @@
         <xdr:cNvPr id="72" name="Elbow Connector 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10291,8 +10564,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22046133" y="6214413"/>
-          <a:ext cx="616193" cy="651753"/>
+          <a:off x="22144104" y="6356947"/>
+          <a:ext cx="618915" cy="509219"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10336,7 +10609,7 @@
         <xdr:cNvPr id="74" name="Elbow Connector 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10379,22 +10652,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>492950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:colOff>264722</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>509650</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95929</xdr:rowOff>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>41688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="75" name="Elbow Connector 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10404,13 +10677,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15646359" y="6124080"/>
-          <a:ext cx="16700" cy="2734849"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="15572758" y="8858930"/>
+          <a:ext cx="228228" cy="2422258"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1468862"/>
+            <a:gd name="adj1" fmla="val -100163"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10452,7 +10725,7 @@
         <xdr:cNvPr id="76" name="Elbow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10510,7 +10783,7 @@
         <xdr:cNvPr id="77" name="Elbow Connector 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10568,7 +10841,7 @@
         <xdr:cNvPr id="78" name="Elbow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10624,7 +10897,7 @@
         <xdr:cNvPr id="79" name="Elbow Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10680,7 +10953,7 @@
         <xdr:cNvPr id="86" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10754,7 +11027,7 @@
         <xdr:cNvPr id="88" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10842,7 +11115,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10900,7 +11173,7 @@
         <xdr:cNvPr id="80" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10974,7 +11247,7 @@
         <xdr:cNvPr id="81" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11082,7 +11355,7 @@
         <xdr:cNvPr id="73" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11156,7 +11429,7 @@
         <xdr:cNvPr id="82" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11279,7 +11552,7 @@
         <xdr:cNvPr id="83" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11401,7 +11674,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11422,6 +11695,720 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>548862</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>113806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>284017</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>56656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Text Box 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22592433" y="10400806"/>
+          <a:ext cx="1572120" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Series</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>82881</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>56656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22126452" y="10724656"/>
+          <a:ext cx="2521155" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeriesID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeriesAdmin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>82881</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Text Box 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22126452" y="11239006"/>
+          <a:ext cx="2521155" cy="816923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeriesName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(250)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeriesDescription</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchr(250)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StartDate date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EndDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>475878</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Text Box 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19457842" y="10586357"/>
+          <a:ext cx="1728479" cy="416378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeminarEventSeries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>84736</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>156605</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19066700" y="11002734"/>
+          <a:ext cx="2521155" cy="563337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeriesID (PK, FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventID(PK, FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>156606</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>82882</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="1"/>
+          <a:endCxn id="93" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="21587856" y="10981831"/>
+          <a:ext cx="538597" cy="302572"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>264721</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>41687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>156604</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="93" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="15572757" y="11281187"/>
+          <a:ext cx="6015097" cy="3215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3800"/>
+            <a:gd name="adj2" fmla="val 54486252"/>
+            <a:gd name="adj3" fmla="val 103800"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11487,7 +12474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11520,26 +12507,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11572,23 +12542,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11764,11 +12717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11780,7 +12733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J12:AB39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -11805,11 +12758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y58" sqref="Y58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE72" sqref="AE72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Spreadsheets/Database Model.xlsx
+++ b/Excel Spreadsheets/Database Model.xlsx
@@ -102,7 +102,7 @@
         <xdr:cNvPr id="2050" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -196,7 +196,7 @@
         <xdr:cNvPr id="2053" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -270,7 +270,7 @@
         <xdr:cNvPr id="2051" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +344,7 @@
         <xdr:cNvPr id="2054" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +418,7 @@
         <xdr:cNvPr id="2052" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="2059" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -606,7 +606,7 @@
         <xdr:cNvPr id="2061" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +700,7 @@
         <xdr:cNvPr id="2063" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -774,7 +774,7 @@
         <xdr:cNvPr id="2064" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
         <xdr:cNvPr id="2066" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +942,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +995,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="11" name="Elbow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1109,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1167,7 @@
         <xdr:cNvPr id="18" name="Elbow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="22" name="Elbow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1283,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
         <xdr:cNvPr id="26" name="Elbow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="28" name="Elbow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
         <xdr:cNvPr id="30" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="32" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="1096" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1982,7 @@
         <xdr:cNvPr id="1095" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2128,7 @@
         <xdr:cNvPr id="1094" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2242,7 @@
         <xdr:cNvPr id="1075" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2316,7 @@
         <xdr:cNvPr id="1074" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="1073" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2504,7 @@
         <xdr:cNvPr id="1093" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="1092" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="1091" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2823,7 @@
         <xdr:cNvPr id="1090" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="1089" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="1088" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3134,7 @@
         <xdr:cNvPr id="1081" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000039040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
         <xdr:cNvPr id="1080" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="1079" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3590,7 @@
         <xdr:cNvPr id="1084" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003C040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,7 +3664,7 @@
         <xdr:cNvPr id="1083" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3798,7 @@
         <xdr:cNvPr id="1082" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +3992,7 @@
         <xdr:cNvPr id="74" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4066,7 @@
         <xdr:cNvPr id="75" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4160,7 @@
         <xdr:cNvPr id="76" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4245,7 @@
         <xdr:cNvPr id="77" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4319,7 +4319,7 @@
         <xdr:cNvPr id="78" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4433,7 @@
         <xdr:cNvPr id="79" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4667,7 @@
         <xdr:cNvPr id="80" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4741,7 @@
         <xdr:cNvPr id="81" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4875,7 @@
         <xdr:cNvPr id="82" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +5049,7 @@
         <xdr:cNvPr id="21" name="Elbow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5105,7 @@
         <xdr:cNvPr id="23" name="Elbow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5161,7 @@
         <xdr:cNvPr id="25" name="Elbow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5219,7 +5219,7 @@
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5277,7 +5277,7 @@
         <xdr:cNvPr id="84" name="Elbow Connector 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5335,7 @@
         <xdr:cNvPr id="1056" name="Elbow Connector 1055">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5393,7 @@
         <xdr:cNvPr id="1058" name="Elbow Connector 1057">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5451,7 @@
         <xdr:cNvPr id="1060" name="Elbow Connector 1059">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5507,7 +5507,7 @@
         <xdr:cNvPr id="1062" name="Elbow Connector 1061">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5563,7 +5563,7 @@
         <xdr:cNvPr id="50" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="51" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5906,7 +5906,7 @@
         <xdr:cNvPr id="52" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5980,7 +5980,7 @@
         <xdr:cNvPr id="41" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6054,7 +6054,7 @@
         <xdr:cNvPr id="42" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6177,7 +6177,7 @@
         <xdr:cNvPr id="43" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6299,7 @@
         <xdr:cNvPr id="3" name="Connector: Elbow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6362,7 +6362,7 @@
         <xdr:cNvPr id="41" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6436,7 +6436,7 @@
         <xdr:cNvPr id="42" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6577,7 +6577,7 @@
         <xdr:cNvPr id="43" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6718,7 +6718,7 @@
         <xdr:cNvPr id="44" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6792,7 +6792,7 @@
         <xdr:cNvPr id="45" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,7 +6895,7 @@
         <xdr:cNvPr id="46" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7007,7 +7007,7 @@
         <xdr:cNvPr id="47" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7081,7 +7081,7 @@
         <xdr:cNvPr id="48" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7207,7 +7207,7 @@
         <xdr:cNvPr id="49" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7371,7 +7371,7 @@
         <xdr:cNvPr id="50" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7445,7 +7445,7 @@
         <xdr:cNvPr id="51" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,15 +7578,15 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>336592</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>186789</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7597,7 +7597,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="15572758" y="11538363"/>
-          <a:ext cx="2521155" cy="1221426"/>
+          <a:ext cx="2521155" cy="1374816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7748,7 +7748,16 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>SeriesFlag bit</a:t>
+            <a:t>EDescription </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>varchar(1000)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7765,16 +7774,16 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>EDescription </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>varchar(1000)</a:t>
+            <a:t>SeriesFlag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> bit</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -7851,7 +7860,7 @@
         <xdr:cNvPr id="53" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7925,7 +7934,7 @@
         <xdr:cNvPr id="54" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8115,7 +8124,7 @@
         <xdr:cNvPr id="55" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8198,7 +8207,7 @@
         <xdr:cNvPr id="56" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8272,7 +8281,7 @@
         <xdr:cNvPr id="57" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +8433,7 @@
         <xdr:cNvPr id="58" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8768,7 +8777,7 @@
         <xdr:cNvPr id="59" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8842,7 +8851,7 @@
         <xdr:cNvPr id="60" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8994,7 +9003,7 @@
         <xdr:cNvPr id="61" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9242,7 +9251,7 @@
         <xdr:cNvPr id="62" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9316,7 +9325,7 @@
         <xdr:cNvPr id="63" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9434,7 +9443,7 @@
         <xdr:cNvPr id="64" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9531,7 +9540,7 @@
         <xdr:cNvPr id="65" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000041000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9605,7 +9614,7 @@
         <xdr:cNvPr id="66" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9737,7 +9746,7 @@
         <xdr:cNvPr id="67" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10052,7 +10061,7 @@
         <xdr:cNvPr id="68" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10126,7 +10135,7 @@
         <xdr:cNvPr id="69" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10278,7 +10287,7 @@
         <xdr:cNvPr id="70" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10497,7 +10506,7 @@
         <xdr:cNvPr id="71" name="Elbow Connector 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10553,7 +10562,7 @@
         <xdr:cNvPr id="72" name="Elbow Connector 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10609,7 +10618,7 @@
         <xdr:cNvPr id="74" name="Elbow Connector 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10667,7 +10676,7 @@
         <xdr:cNvPr id="75" name="Elbow Connector 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10725,7 +10734,7 @@
         <xdr:cNvPr id="76" name="Elbow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10783,7 +10792,7 @@
         <xdr:cNvPr id="77" name="Elbow Connector 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10841,7 +10850,7 @@
         <xdr:cNvPr id="78" name="Elbow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10897,7 +10906,7 @@
         <xdr:cNvPr id="79" name="Elbow Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10953,7 +10962,7 @@
         <xdr:cNvPr id="86" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000056000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11027,7 +11036,7 @@
         <xdr:cNvPr id="88" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000058000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11115,7 +11124,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11173,7 +11182,7 @@
         <xdr:cNvPr id="80" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11247,7 +11256,7 @@
         <xdr:cNvPr id="81" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11355,7 +11364,7 @@
         <xdr:cNvPr id="73" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11429,7 +11438,7 @@
         <xdr:cNvPr id="82" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11552,7 +11561,7 @@
         <xdr:cNvPr id="83" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11674,7 +11683,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11732,7 +11741,7 @@
         <xdr:cNvPr id="89" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11806,7 +11815,7 @@
         <xdr:cNvPr id="90" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11890,16 +11899,16 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>SeriesAdmin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> int (FK)</a:t>
+            <a:t>EventID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>int (FK)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -11940,14 +11949,14 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>154750</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="91" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11958,7 +11967,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="22126452" y="11239006"/>
-          <a:ext cx="2521155" cy="816923"/>
+          <a:ext cx="2521155" cy="844137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12112,299 +12121,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>475878</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>264721</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>367392</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>144235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Text Box 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19457842" y="10586357"/>
-          <a:ext cx="1728479" cy="416378"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>SeminarEventSeries</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>84736</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>144234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>156605</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Text Box 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19066700" y="11002734"/>
-          <a:ext cx="2521155" cy="563337"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FDD49D"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>SeriesID (PK, FK)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>EventID(PK, FK)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>156606</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>82882</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154749</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>44903</xdr:rowOff>
+      <xdr:rowOff>41689</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="1"/>
-          <a:endCxn id="93" idx="3"/>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="90" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="21587856" y="10981831"/>
-          <a:ext cx="538597" cy="302572"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>264721</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>41687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>156604</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44902</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="1"/>
-          <a:endCxn id="93" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="15572757" y="11281187"/>
-          <a:ext cx="6015097" cy="3215"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="15572757" y="10981832"/>
+          <a:ext cx="9074849" cy="299357"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3800"/>
-            <a:gd name="adj2" fmla="val 54486252"/>
-            <a:gd name="adj3" fmla="val 103800"/>
+            <a:gd name="adj1" fmla="val -2519"/>
+            <a:gd name="adj2" fmla="val -719546"/>
+            <a:gd name="adj3" fmla="val 102519"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -12761,8 +12506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE72" sqref="AE72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG66" sqref="AG66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Spreadsheets/Database Model.xlsx
+++ b/Excel Spreadsheets/Database Model.xlsx
@@ -102,7 +102,7 @@
         <xdr:cNvPr id="2050" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -196,7 +196,7 @@
         <xdr:cNvPr id="2053" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -270,7 +270,7 @@
         <xdr:cNvPr id="2051" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +344,7 @@
         <xdr:cNvPr id="2054" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +418,7 @@
         <xdr:cNvPr id="2052" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="2059" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -606,7 +606,7 @@
         <xdr:cNvPr id="2061" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +700,7 @@
         <xdr:cNvPr id="2063" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -774,7 +774,7 @@
         <xdr:cNvPr id="2064" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
         <xdr:cNvPr id="2066" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +942,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +995,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="11" name="Elbow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1109,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1167,7 @@
         <xdr:cNvPr id="18" name="Elbow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="22" name="Elbow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1283,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
         <xdr:cNvPr id="26" name="Elbow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="28" name="Elbow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DDA36D5-EB14-43C1-929D-51A790829FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D2C7EC-9672-40A7-B409-A339376B88B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
         <xdr:cNvPr id="30" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="32" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="1096" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1982,7 @@
         <xdr:cNvPr id="1095" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2128,7 @@
         <xdr:cNvPr id="1094" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2242,7 @@
         <xdr:cNvPr id="1075" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2316,7 @@
         <xdr:cNvPr id="1074" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="1073" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2504,7 @@
         <xdr:cNvPr id="1093" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="1092" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="1091" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2823,7 @@
         <xdr:cNvPr id="1090" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="1089" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="1088" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3134,7 @@
         <xdr:cNvPr id="1081" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000039040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
         <xdr:cNvPr id="1080" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="1079" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3590,7 @@
         <xdr:cNvPr id="1084" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,7 +3664,7 @@
         <xdr:cNvPr id="1083" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3798,7 @@
         <xdr:cNvPr id="1082" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +3992,7 @@
         <xdr:cNvPr id="74" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4066,7 @@
         <xdr:cNvPr id="75" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4160,7 @@
         <xdr:cNvPr id="76" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4245,7 @@
         <xdr:cNvPr id="77" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4319,7 +4319,7 @@
         <xdr:cNvPr id="78" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4433,7 @@
         <xdr:cNvPr id="79" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4667,7 @@
         <xdr:cNvPr id="80" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4741,7 @@
         <xdr:cNvPr id="81" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4875,7 @@
         <xdr:cNvPr id="82" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +5049,7 @@
         <xdr:cNvPr id="21" name="Elbow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5105,7 @@
         <xdr:cNvPr id="23" name="Elbow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5161,7 @@
         <xdr:cNvPr id="25" name="Elbow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5219,7 +5219,7 @@
         <xdr:cNvPr id="31" name="Elbow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5277,7 +5277,7 @@
         <xdr:cNvPr id="84" name="Elbow Connector 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5335,7 @@
         <xdr:cNvPr id="1056" name="Elbow Connector 1055">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5393,7 @@
         <xdr:cNvPr id="1058" name="Elbow Connector 1057">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5451,7 @@
         <xdr:cNvPr id="1060" name="Elbow Connector 1059">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5507,7 +5507,7 @@
         <xdr:cNvPr id="1062" name="Elbow Connector 1061">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5563,7 +5563,7 @@
         <xdr:cNvPr id="50" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="51" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5906,7 +5906,7 @@
         <xdr:cNvPr id="52" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5980,7 +5980,7 @@
         <xdr:cNvPr id="41" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83779039-A535-4072-8979-84FEFB2C1695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6054,7 +6054,7 @@
         <xdr:cNvPr id="42" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{139C3686-70AC-437D-9C14-40425365DC99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6177,7 +6177,7 @@
         <xdr:cNvPr id="43" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7771C4E8-EAE4-4042-9C47-8BDBDE59A6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6299,7 @@
         <xdr:cNvPr id="3" name="Connector: Elbow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C8AA0D-63BD-49DE-9C19-645E2DEE61E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6362,7 +6362,7 @@
         <xdr:cNvPr id="41" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6436,7 +6436,7 @@
         <xdr:cNvPr id="42" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6577,7 +6577,7 @@
         <xdr:cNvPr id="43" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6718,7 +6718,7 @@
         <xdr:cNvPr id="44" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6792,7 +6792,7 @@
         <xdr:cNvPr id="45" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,7 +6895,7 @@
         <xdr:cNvPr id="46" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7007,7 +7007,7 @@
         <xdr:cNvPr id="47" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7081,7 +7081,7 @@
         <xdr:cNvPr id="48" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7207,7 +7207,7 @@
         <xdr:cNvPr id="49" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7371,7 +7371,7 @@
         <xdr:cNvPr id="50" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7445,7 +7445,7 @@
         <xdr:cNvPr id="51" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7586,7 +7586,7 @@
         <xdr:cNvPr id="52" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7860,7 +7860,7 @@
         <xdr:cNvPr id="53" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +7934,7 @@
         <xdr:cNvPr id="54" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8124,7 +8124,7 @@
         <xdr:cNvPr id="55" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8207,7 +8207,7 @@
         <xdr:cNvPr id="56" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8281,7 +8281,7 @@
         <xdr:cNvPr id="57" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8433,7 +8433,7 @@
         <xdr:cNvPr id="58" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8777,7 +8777,7 @@
         <xdr:cNvPr id="59" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8851,7 +8851,7 @@
         <xdr:cNvPr id="60" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9003,7 +9003,7 @@
         <xdr:cNvPr id="61" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9251,7 +9251,7 @@
         <xdr:cNvPr id="62" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9325,7 +9325,7 @@
         <xdr:cNvPr id="63" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9443,7 +9443,7 @@
         <xdr:cNvPr id="64" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9540,7 +9540,7 @@
         <xdr:cNvPr id="65" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9614,7 +9614,7 @@
         <xdr:cNvPr id="66" name="Text Box 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9746,7 +9746,7 @@
         <xdr:cNvPr id="67" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10061,7 +10061,7 @@
         <xdr:cNvPr id="68" name="Text Box 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10135,7 +10135,7 @@
         <xdr:cNvPr id="69" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10287,7 +10287,7 @@
         <xdr:cNvPr id="70" name="Text Box 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10506,7 +10506,7 @@
         <xdr:cNvPr id="71" name="Elbow Connector 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10562,7 +10562,7 @@
         <xdr:cNvPr id="72" name="Elbow Connector 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10618,7 +10618,7 @@
         <xdr:cNvPr id="74" name="Elbow Connector 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10676,7 +10676,7 @@
         <xdr:cNvPr id="75" name="Elbow Connector 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10734,7 +10734,7 @@
         <xdr:cNvPr id="76" name="Elbow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10792,7 +10792,7 @@
         <xdr:cNvPr id="77" name="Elbow Connector 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10850,7 +10850,7 @@
         <xdr:cNvPr id="78" name="Elbow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10906,7 +10906,7 @@
         <xdr:cNvPr id="79" name="Elbow Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10962,7 +10962,7 @@
         <xdr:cNvPr id="86" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11036,7 +11036,7 @@
         <xdr:cNvPr id="88" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11124,7 +11124,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11182,7 +11182,7 @@
         <xdr:cNvPr id="80" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11256,7 +11256,7 @@
         <xdr:cNvPr id="81" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11364,7 +11364,7 @@
         <xdr:cNvPr id="73" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF13311C-E617-4454-9B0C-1227C9414180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11438,7 +11438,7 @@
         <xdr:cNvPr id="82" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C1FC17A-6B46-40DF-B407-A29D6AE85B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11561,7 +11561,7 @@
         <xdr:cNvPr id="83" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4E73DF-C005-4C5E-8CCA-331D8AD7EEE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11683,7 +11683,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C7DE72E-C27A-468C-89F9-C3FB14348FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11741,7 +11741,7 @@
         <xdr:cNvPr id="89" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11815,7 +11815,7 @@
         <xdr:cNvPr id="90" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11956,7 +11956,7 @@
         <xdr:cNvPr id="91" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12150,6 +12150,276 @@
             <a:gd name="adj1" fmla="val -2519"/>
             <a:gd name="adj2" fmla="val -719546"/>
             <a:gd name="adj3" fmla="val 102519"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595498</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363436</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10293680" y="12482946"/>
+          <a:ext cx="1586347" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SeminarInterest		</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147946</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219818</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9846128" y="12806796"/>
+          <a:ext cx="2496417" cy="542059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventID int (PK, FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>InterestID int (PK, FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219818</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>41688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>264722</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="85" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12342545" y="11281188"/>
+          <a:ext cx="3075586" cy="1796638"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219818</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>396464</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="85" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12342545" y="4023880"/>
+          <a:ext cx="1995055" cy="9053946"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33159"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -12506,8 +12776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG66" sqref="AG66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
